--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1194.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1194.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8921441999689351</v>
+        <v>1.171470522880554</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.437279939651489</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.365739345550537</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.238474369049072</v>
       </c>
     </row>
   </sheetData>
